--- a/download_file/마음손거래내역_20230712053931하늘빛요양원asdf.xlsx
+++ b/download_file/마음손거래내역_20230712053931하늘빛요양원asdf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ysk\Python\python_auto_work\download_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49862F5B-016D-4CD1-B753-BD962A4C6B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36C9DF3-D697-4A66-83EE-7A355867F859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="4545" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="마음손거래내역_20230712053931하늘빛요양원" sheetId="1" r:id="rId1"/>
@@ -1165,7 +1165,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:L4"/>
+      <selection activeCell="A5" sqref="A5:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
